--- a/src/main/java/utility/ps_data.xlsx
+++ b/src/main/java/utility/ps_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB34D7A-7D76-43CE-9CDC-C0993358A33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454D497-734D-4FF9-A21A-65DEC67BD44A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="5" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="6" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="7" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
